--- a/DbInfo.xlsx
+++ b/DbInfo.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>USER:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Id(int,PK)</t>
   </si>
@@ -33,9 +30,6 @@
     <t>FullName(Apha)</t>
   </si>
   <si>
-    <t>DOB(aphaNum)</t>
-  </si>
-  <si>
     <t>Email(alphaNum)</t>
   </si>
   <si>
@@ -51,14 +45,191 @@
     <t>uploadAdress(AlphaNum)</t>
   </si>
   <si>
-    <t>ApplicationId(int)</t>
+    <t>DOB(date)</t>
+  </si>
+  <si>
+    <t>Id(int ,pk)</t>
+  </si>
+  <si>
+    <t>UserId(int ,Fk)</t>
+  </si>
+  <si>
+    <t>init balance(int)</t>
+  </si>
+  <si>
+    <t>USER Table</t>
+  </si>
+  <si>
+    <t>Account Table</t>
+  </si>
+  <si>
+    <t>Payee Table</t>
+  </si>
+  <si>
+    <t>"20012022142517"</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Mohammed Falil</t>
+  </si>
+  <si>
+    <t>falil@email.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XXXXXNNNNX</t>
+  </si>
+  <si>
+    <t>000 1111 2222 3333</t>
+  </si>
+  <si>
+    <t>address of the image</t>
+  </si>
+  <si>
+    <t>Id(int,pk)</t>
+  </si>
+  <si>
+    <t>UserName(alphaNum)</t>
+  </si>
+  <si>
+    <t>password(hash)</t>
+  </si>
+  <si>
+    <t>Sidhant</t>
+  </si>
+  <si>
+    <t>skdjvnkdjfnvkjsnv213417</t>
+  </si>
+  <si>
+    <t>AccountNum(int,Uk) 6 digit</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Transaction Table(statement)</t>
+  </si>
+  <si>
+    <t>Account Approval Table</t>
+  </si>
+  <si>
+    <t>ApplicationId(Fk)</t>
+  </si>
+  <si>
+    <t>Status(Alpha)</t>
+  </si>
+  <si>
+    <t>AdminId(FK)</t>
+  </si>
+  <si>
+    <t>Id(int ,PK)</t>
+  </si>
+  <si>
+    <t>AccountNum(FK)</t>
+  </si>
+  <si>
+    <t>Type(Apha)</t>
+  </si>
+  <si>
+    <t>Amount(aplhaNum)</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>"20012022151011"</t>
+  </si>
+  <si>
+    <t>ApplicationId(TS,BigInt)Uk</t>
+  </si>
+  <si>
+    <t>TimeStamp(bigInt)</t>
+  </si>
+  <si>
+    <t>"20012022151311"</t>
+  </si>
+  <si>
+    <t>Id(int ,Pk)</t>
+  </si>
+  <si>
+    <t>ShortName(Alpha)</t>
+  </si>
+  <si>
+    <t>PayeeAccounNum(int)</t>
+  </si>
+  <si>
+    <t>Falil</t>
+  </si>
+  <si>
+    <t>Ranjith</t>
+  </si>
+  <si>
+    <t>Bharti</t>
+  </si>
+  <si>
+    <t>Id(int ,pK)</t>
+  </si>
+  <si>
+    <t>BilllerName(AlphaNum)</t>
+  </si>
+  <si>
+    <t>BillerAcctNum(int ,UK)</t>
+  </si>
+  <si>
+    <t>Airtel</t>
+  </si>
+  <si>
+    <t>JIO</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Biller Registered Table</t>
+  </si>
+  <si>
+    <t>Id(int,Pk)</t>
+  </si>
+  <si>
+    <t>AccountNum(int,Fk)</t>
+  </si>
+  <si>
+    <t>ConsumerNum(int ,Uk)</t>
+  </si>
+  <si>
+    <t>Biller Provider Table(At the bank levek)</t>
+  </si>
+  <si>
+    <t>TransactionId(int,UK)</t>
+  </si>
+  <si>
+    <t>BillerproviderId(int,FK)</t>
+  </si>
+  <si>
+    <t>User Authentication Table</t>
+  </si>
+  <si>
+    <t>Email(AlphaNum)</t>
+  </si>
+  <si>
+    <t>Password(alphaNum,hash)</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>"nsdbfh67"</t>
+  </si>
+  <si>
+    <t>Admin Authentication  Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +241,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,16 +271,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,81 +591,701 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4">
+        <v>36358</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>9876543210</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>1001</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>123456</v>
+      </c>
+      <c r="C7">
+        <v>101</v>
+      </c>
+      <c r="D7">
+        <v>1001</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>922356</v>
+      </c>
+      <c r="C8" s="3">
+        <v>101</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5599</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>123456</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>654321</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>123456</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>1111111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B19">
+        <v>654321</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>123456</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
+      <c r="B20">
+        <v>70080</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>1111111</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>123456</v>
+      </c>
+      <c r="D25">
+        <v>98765</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>922356</v>
+      </c>
+      <c r="D26" s="3">
+        <v>65647</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>1907832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>1890236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>1092237</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>123456</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34">
+        <v>1001</v>
+      </c>
+      <c r="E34">
+        <v>99838447</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="9">
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A22:K22"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A10:K10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
